--- a/data/hotels_by_city/Dallas/Dallas_shard_387.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_387.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Nicholas J</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Racheal at the front desk was very Hospitable and friendly. Had an issue with our remote for the TV and she had someone fix it right away. Very nice stay and nice amenities. Also had a shuttle service even at 9pm. More</t>
   </si>
   <si>
+    <t>Rebecca T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r533238934-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>We went for a weekend out and stayed here because it was close to the Stockyards and downtown.  Was a little difficult with the interstate construction but was a delightful stay.  Everyone was really friendly and gave us a choice in rooms that best fit what we needed.  Super clean and attentive. We will be staying there again soon! More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r532996329-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Kudos to Christinne for making a simple  pasta dish taste 5 Star Delicious! Thank you for always going the extra mile to make every breakfast and dinner a great experience. If you want extra garlic and less sauce, nothing is ever a problem.  It's always the people that makes a place special and Christinne is one of those people. Thank You! More</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r519139678-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>The Holiday Inn was very nice. It was clean and updated. The check in was fast. The lobby was nice and clean. The room was very nice. Mattress was very comfortable the air was cold. We really enjoyed our stay.More</t>
   </si>
   <si>
+    <t>L A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r515608150-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>I stayed here for a funeral, loved the hotel, they had everything I needed. The room was super clean. The bed was confortable and plush.  I used the heated indoor pool and hot tub which was a nice and relaxing way  to recharge. I had breakfast, service was a little slow and food wasn't as warm to my liking, but convenient. Breakfast was not free.  The desk staff was amazing, made me feel like it was my temporary home. Bar was a nice touch and convenient. The bar staff was friendly and so nice, they have beer, wine, liquor. I did eat dinner at the bar, wings, fries, pita with hummus. Met some interesting folks all there for work.  There is a Mcdonalds next door and store on the corner, wuick drive to Stockyards and downtown.More</t>
   </si>
   <si>
+    <t>Millard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r309361195-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>Nice hotel for business travelers/would upgrade room or stay elsewhere if I was on a family trip.  Great drinks at the bar - decent food. I like the pool and hot tub- there's a small gym but it's ok (they supply cold bottled water which is nice after a workout or swim). Snacks and drinks are accessible behind the front desk at a reasonable price.  Allison at the restaurant was super nice and I've seen nothing but good things from the rest of the staff!THANKS!!! I'm looking forward the the rest of my stay!More</t>
   </si>
   <si>
+    <t>Kristal L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r301928649-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>All of the staff was friendly and helpful and I could tell they work to keep the hotel as nice as it was. I know this because we left an iPhone in the pool area and we went back for it and the maid that was cleaning gladly handed it over. Also they upgraded us to a suite for free because we were platinum members. The warm breakfast buffet was $9.95 and everything tasted as expected. The second morning we ordered room service which was fast and super easy, and actually a little cheaper than the buffet ;) The third morning we went to Cracker Barrel which was within walking distance. The pool was indoors and wasn't cold because the spa was dripping slowly into it which was a peaceful scene. The cola machines were sold out of water on all the floors, but they sell it and keep it in stock in the lobby. A nice place to be if your ever in Fort Worth, TX. Attached are pictures of and from the suite on the second floor. The hotel is 5 floors tall.More</t>
   </si>
   <si>
+    <t>tine1281</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r299353024-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>Spent 2 nights at this nice Holiday Inn in very hot Fort Worth!  The hotel is near a large business park and there are not a lot of food options nearby, a McDonalds, Subway and Cracker Barrel.  However, the hotel itself is very nice.  The lobby was clean, with a soothing waterfall.  My room was a large king room with everything looking recently updated.  The bathroom was clean and spacious.  The room had a rather large fridge and a microwave.  I utilized the desk with very comfortable office chair as well as the sitting chair for reading.  The bed was very comfortable and the TV had HBO.  We had breakfast vouchers, but they apparently did not include orange juice as the waitress sort of rudely told us the first morning.  She was also the only staff there so service was very slow and unfriendly.  The second morning was much better and there was a buffet and the orange juice was covered so I am not sure what the issue was the first morning.Overall, I would recommend this hotel if you are in this area on business or passing through and need a place to spend the night.More</t>
   </si>
   <si>
+    <t>oilman724</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r297164876-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>Was the absolutely worst hotel I have ever stayed at. Had to switch room immediately due to the air conditioning not working in my assigned room. The next room I was given was dirty smelled must had major water damage to the ceiling with mold showing. At that point I tried to get another room but was told there was nothing else available. Other items wrong were old towels falling apart, dirty bathroom, no toilet paper, noisy ac dirty shower curtain....More</t>
   </si>
   <si>
+    <t>pareece</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r286371488-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
     <t>Hi fellow travelers!  So, I found my way to Fort Worth and it was an amazing trip!  I ended up at this hotel because the original one booked closed suddenly due to flooding in that area.  Holiday Inn was the newly booked hotel.  The hotel is nicely renovated; decor pretty contemporary and everything looks new.  Wonderful continental breakfast choices happening here; swimming pool; great staff on board.  I had a nice room.  Place was nicely chilled because it was mad hot there.  Overall, 4 stars!More</t>
   </si>
   <si>
+    <t>Stephen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r280589689-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -432,6 +465,9 @@
     <t>We spent four nights at the hotel while we were in town for a wedding and opted for the breakfast add-on with our room. We were delighted at the quality and variety of food on the menu. The accessible bathroom had a tub seat, plenty of grab bars, but lacked a hand-held shower head. The king-sized bed was comfortable and provided a good night's sleep. Since the bed was higher than we had expected for a handicap-accessible room, it was somewhat difficult to get into. A minor inconvenience was the poor television reception in the room.More</t>
   </si>
   <si>
+    <t>Marne V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r279130960-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Dadenjoyinglife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r258601114-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>Although hotel was clean and the cleaning staff was friendly, the bedshirts gave me a horrlible rash on my arms during our two night stay (was extremely bad second night). When I talking with hotel desk, they seemed uncaring of the situation. Very disheartening to say the least. Took a week to get rid of arm rash!!!Will not stay at another Holiday Inn!More</t>
   </si>
   <si>
+    <t>Royce Grace M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r257454947-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>The room was per usual Holiday Inn - clean, etc. You will have extreme difficulty getting nutritious, edible food in the area. For dinner, in the hotel's restaurant, the chicken dinner was ordered. A salad was also ordered for an extra charge. The salad was not chilled and was not readily recognizable as a salad. The chicken dinner was a few strips of pre-breaded chicken pieces grabbed from the freezer and thrown into the deep-fat fryer, then served alone on the plate - no potato, no veg, no bread, no anything. In the immediate area there is a McDonald's and a Subway - thin pickings, but then, who expects gourmet dining in Texas anyway? The free breakfast is edible and plentiful, so if you are staying here due to meetings in the hotel, fill up then. Also, the website does state that there is a shuttle van, which would be helpful for a trip to another restaurant. There is a van parked in the lot, so technically correct on the website, but the staff at the desk report that there isn't anyone available to drive it. Lastly, if you are needing to arrange meetings, training, etc., in the hotel, be advised that there will be no flip chart or markers, no projector, no computer for your flash drive, offered assistance for copies, or anything else provided. The room is clean with chairs and tables but no other support.More</t>
   </si>
   <si>
+    <t>Alberto P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r254735376-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>Average hotel but there was nothing that will make me not recommend it to someone. Room was clean, decent bathroom and check in and check out was quick. It might be a bit out of town but there is lots of taxis and uber cars that you can get to take you there. More</t>
   </si>
   <si>
+    <t>Alanm1951</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r245644721-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>This is a real nice place. We were mainly visiting the Stockyards. This hotel is probably one of the nicest that is close to the Stockyards and the price is a more normal rate.  The service was nice and the staff were very friendly and helpful.  There are some other hotel chains within spitting distance of this one and they all looked to be well kept and run. Also, there was a Cracker Barrel within a quarter of a mile.  The hotel did have a nice looking restaurant but we didn't eat there. Overall this is a very nice hotel.  The rooms were nice. The bed was probably one of the most comfortable I have slept in.  It is not just any old mattress with a sheet on it. Ok, I said it is nice enough. Bottom line, I highly recommend it and I plan on staying here every time I am in the area.More</t>
   </si>
   <si>
+    <t>BoerneBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r242534416-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -591,6 +642,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Pamela H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r241727408-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -606,6 +660,9 @@
     <t>This hotel has such beautiful design elements to it! When you enter you see a beautiful wall waterfall that is soothing as you check in to your room. A nice bar and restaurant are also on the main level, which has a outdoor area to enjoy as well.The rooms are spacious and has a nice size refrigerator, coffee maker and microwave, always important to me!The is a pool with a small rock waterfall area and a work-out facility.  The property also has a shuttle for use as well as meeting rooms.The service is always fantastic and you are always met with a smile!</t>
   </si>
   <si>
+    <t>journeywithme_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r236860524-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -624,6 +681,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Jeremy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r234393302-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,6 +711,9 @@
     <t>We've stayed here a for times when in town to see shows @ Billy bobs. Always clean and friendly. The free shuttle is very nice and Marcus the driver is always fun. The Rooms are always clean and you can stay here without breaking the bank.More</t>
   </si>
   <si>
+    <t>ferfer2323</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r233634299-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -669,6 +732,9 @@
     <t>We were driving in to town from Houston for a funeral the next day in a small neighboring town (Azle).  We were getting in late so basically needed somewhere to sleep and get ready the next morning.  We got in around 11 pm.  The female that checked us in was extremely pleasant.  The hotel décor was nice and everything looked and felt clean.  The rooms had a small fridge which I always like because we always bring extra drinks.  Check out was at 12 but they accommodated our request for a late checkout (1 pm).  My only complaint was we ordered breakfast from room service.  It arrived quickly but was cold and not edible.  All in all a great stay for a great price....we got a special through Priceline for $57 for the night!More</t>
   </si>
   <si>
+    <t>Ron W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r230336518-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -693,6 +759,9 @@
     <t>I was attending a conference at the Radisson across the street. Saw this hotel had better reviews so decided to stay here instead. Ate breakfasts at both and the Holiday Inn was much better. More choices, better quality and great wait staff. The Radisson has a nice fountain in the lobby, but I enjoyed a quiet suite at the Holiday Inn.More</t>
   </si>
   <si>
+    <t>cesarmangeltorres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r219886283-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -708,6 +777,9 @@
     <t xml:space="preserve">Stayed here one night and the hotel was very nice! Clean rooms and very nice that each floor has self service guest laundry for free! Lady at front desk was very nice and even let me and my wife stay an extra hour in the pool! </t>
   </si>
   <si>
+    <t>Steve_W_India</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r219851735-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -723,6 +795,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>breezyww</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r156922697-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -738,6 +813,9 @@
     <t xml:space="preserve">Chose this HI location due to points and it was a good choice.  We liked the hotel decor, clean rooms and friendly staff. Stayed on the top floor and it was nice and quiet. A few minor cons-bed pillows are way too small (take your own), a/c a little too loud and low lighting in bathroom made putting on make up difficult.  All in all good stay, we will choose again. </t>
   </si>
   <si>
+    <t>allison h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r152722970-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -756,6 +834,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Waconda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r151435192-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -780,6 +861,9 @@
     <t>We were planning a trip to Texas to see family. We used points to stay at the hotel. Check in was quick.  Gave us an amenities bag to thank us for being a priority member.   Ok, fine. One bottle of water and a bag of peanuts, for two people.  We like Holiday Inns because of the breakfast provided, especially when traveling for business.  After check in, I called and asked about the breakfast. I was told we only got the room for free,  No free breakfast vouchers for the restaurant.  I was not told this when I booked the room.  We would not have come here if I was told breakfast is not provided.  Quite frankly, this has never happened before.  And, on some website, I know I saw there was breakfast included.More</t>
   </si>
   <si>
+    <t>Lisa123075</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r150518423-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -804,6 +888,9 @@
     <t>For $150 a night I would expect breakfast to be included,that torn carpets be repaired, peeling wallpaper be replaced, curtain clips replaced, etc... The first room we got had dirty cleaning sponge and supplies left on the counter in the bathroom so they let us move to another room. The second room had torn frayed carpet as you walked in, dirty stains all over it. The walls had splatters stains of liquids on them where I am guessing a drink was spilled but never cleaned up. The king size bed had four half throw pillows on it in pillow cases. Can't imagine why at least they don't put full size pillows? It was overall very disappointing for the price. Needs better house keeping and maintenance staff to put some work in before I would spend the money to stay there again.More</t>
   </si>
   <si>
+    <t>raj0302</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r148395516-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -825,6 +912,9 @@
     <t>I only stayed at this location one night but was impressed by the appearance of the facility and the state of maintenance.  The room was clean and comfortable and very quiet (especially considering proximity to the interstate).  It has "easy on/easy off" access to the interstate and there are a number of restaurants a short (less than 5 minute) drive away.  The parking lot was well lit and the location appeared to be safe with little/no pedestrian traffic near the property.  The full-service bar was a welcome treat at the end of a long day; I did not utilize many of the other amenities so I cannot comment on the gym, pool, restaurant or laundry facilities.More</t>
   </si>
   <si>
+    <t>Marissa77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r146212516-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -843,6 +933,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Horsefly73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r146157346-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -856,6 +949,9 @@
   </si>
   <si>
     <t>The hotel staff are very friendly and helpful. The suites were very clean and well laid out. We only had one problem and that was the fuses for our room kept blowing out. It was somewhat of a irritate but overall it's a great place to stay and I would recommend staying here.</t>
+  </si>
+  <si>
+    <t>MOG1103</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r144936097-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -881,6 +977,9 @@
 The front desk staff was so pleasant that you would have thought they were a part of our group. The lobby was beautiful, the rooms were large, clean and very comfortable, and the housekeeping staff friendly and efficient. I would highly recommend this Holiday Inn and this location to anyone visiting Ft. Worth, TX, especially if you are planning a wedding, have a large group to accomodate and want good value for your guests. Thank you Holiday...We had about 26 family and friends coming to Ft. Worth this past weekend for our son's wedding. HI Ft. Worth North-Fossil Creek reserved a block of rooms for our guests at a very reasonable rate and the service was fantastic. I had some concerns about how attentive they would be to our guests' needs when I found out there was a huge NASCAR race going on this same weekend and the hotel was booked to capacity. Well, I had nothing to worry about becuase the service could not have been better, the staff was fantastic, could not have been more accommodating. They provided complimentary shuttle service to the wedding reception and back for all our guests and the shuttle had to make multiple trips back/forth to get everyone there and back and there were no problems whatsoever. They just told us to call the hotel as a group of guests was ready to return and within 10 minutes the driver would appear!The front desk staff was so pleasant that you would have thought they were a part of our group. The lobby was beautiful, the rooms were large, clean and very comfortable, and the housekeeping staff friendly and efficient. I would highly recommend this Holiday Inn and this location to anyone visiting Ft. Worth, TX, especially if you are planning a wedding, have a large group to accomodate and want good value for your guests. Thank you Holiday Inn Fort Worth North-Fossil Creek - you are a great example of Texas hospitality!More</t>
   </si>
   <si>
+    <t>BigDaddy083</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r138884870-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -905,6 +1004,9 @@
     <t>This location is clean, up to date, close to the highway and slightly overpriced.  The service at the restaurant is far below par and will cause me to look elsewhere on my next trip.  No follow-up during dinner and no service within 15 minutes for breakfast are the reasons for my conclusions.More</t>
   </si>
   <si>
+    <t>MellieG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r138194328-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1025,9 @@
     <t>I was Booked into this newer HI property on business and must say, i was delightfully surprised  at how really nice it is!!  Impressive  Front Desk Staff -Very friendly and super attentive when I had a small issue with room.The Lobby was lovely, clean &amp; comfortable and the small restaurant very convenient for tasty meals. I was in a 2 room suite which I would highly recommend for comfort! Nice to have the mini fridge, microwave and sink. The bed was not too hard.. Not too soft... Just right and I appreciated the choice of pillows.Hotel was quiet and the location is convenient to several restaurants and a quick trip by car to Ft Worth's Cowtown. Will definitely stay there again!More</t>
   </si>
   <si>
+    <t>nuevoleon58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r137776706-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1049,9 @@
     <t>My boyfriend and I were in town for the weekend for a wedding near the stockyards.  We were very pleased with our stay here, and feel it had a great value.  The only things we didn't love were that the pillows were a little small (though this has been the case in 2 of the last 3 hotels we've stayed in . . . ) and our room service breakfast order was lost, but we were compensated with a free breakfast in the dining room, which was delicious!  They were also a little understaffed at night, it seems, as we had to go downstairs to get our own replacement pillow, but it wasn't a huge inconvenience.Other pros:-Very clean-Well-decorated and designed-Convenient location to stockyards and I-35-Friendly staff-QuietMore</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r136149155-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1067,9 @@
     <t>This is a very clean and modern HIN, located in a good area not far from downtown, the stockyards, and other popular areas. The rooms were clean and spacious, there is a bar, an indoor pool, and room service. The only complaint I have is I wish they would have served the coffee I ordered from room service in a mug, rather then a flimsy plastic cup. Would stay her again though.</t>
   </si>
   <si>
+    <t>vettman608</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r135238216-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -974,6 +1085,9 @@
     <t>This hotel is in a good location if not staying downtown Ft Worth only about 8 min from Convention Cntr.  Check in was good staff was very attentive, very prompt with check-in.  Be ready to sweat once you hit the hallway headed to room.  We didn't know if the air conditioner was out or just turned up.  The rooms were comfortable, air condition was good, neat and clean.  If there was one thing that made it not perfect was a slight oder from bathroom, but it was very slight and nothing uncomfortable.  We didn't eat at at hotel or swim in pool.  Would stay again.</t>
   </si>
   <si>
+    <t>thefamilythattravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r134767557-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -989,6 +1103,9 @@
     <t>Sometimes Holiday Inn can be a crap shoot but this one was very clean and nice.</t>
   </si>
   <si>
+    <t>bamagirl74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r133536034-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1119,9 @@
   </si>
   <si>
     <t>My husband and I traveled to Ft. Worth for a family wedding and stayed @ the Holiday Inn Ft. Worth North-Fossil Creek.  Very nice staff - friendly and helpful.  Our room was clean and neatly arranged... had a mini-fridge, iron &amp; ironing board plus a few other things that made our stay easier since we were staying several days.  The only downside was the lack of a computer in the business center (their p.c. was out for repairs) and we hadn't traveled with our laptop.  I would definitely suggest this hotel to friends or family.  Very neat and clean!</t>
+  </si>
+  <si>
+    <t>Bryan W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r132598024-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1029,6 +1149,9 @@
 The room was impeccably clean (okay, full disclosure - there was a lone peanut in the Gideon Bible drawer). I loved the fact that it had a fridge and microwave, as I believe all the rooms at this hotel do. The room was spacious with a nice desk and comfortable chair. I never had any problems with the wifi, and I was online at least a couple of hours every day. I was a little worried about the water pressure when I turned...I rarely review anything, but I definitely wanted to share my experience at this Holiday Inn. After reading some of the less-than-stellar reviews, I was a little leery about staying here - but, I got a really nice deal, so I figured I'd take a chance. I'm really glad I did. Most of the complaints seem to be about the service, so I breathed my first sigh of relief when I was greeted in a very friendly manner upon arrival. (I swore to myself I was going to remember the young lady's name so I could mention it in my review, but it's not coming to me.) No matter - over the course of my 5-night stay I probably interacted with at least 6 different people at the desk, and every one of them was friendly and helpful. I even had some unusual requests with which I needed assistance, and they were more than happy to oblige. The room was impeccably clean (okay, full disclosure - there was a lone peanut in the Gideon Bible drawer). I loved the fact that it had a fridge and microwave, as I believe all the rooms at this hotel do. The room was spacious with a nice desk and comfortable chair. I never had any problems with the wifi, and I was online at least a couple of hours every day. I was a little worried about the water pressure when I turned on the faucet in the tub, but as soon as I redirected it to the shower head I was hit with a fantastic flow (must be a magical shower head.)The bed was very, very firm, which was absolutely perfect for my back, but probably not ideal for everyone. The pillows were labeled "soft" and "firm", but I honestly couldn't tell much difference. My only very minor complaint with the room is that the safe in the closet was closed, and nobody could seem to figure out how to get it open. Someone from the front desk (the awesome girl that checked me in) brought up a key that was supposed to work, but didn't. She did say that maintenance would be able to help me out the next day, but I didn't feel like dealing with it. The only thing I was concerned about was my laptop, and I just ended up taking it with me most of the times I left. Another concern I had (and always have when staying at a hotel) was how well the air conditioner would work, because I simply can't sleep if it's too warm. No need to worry, it was fine. Oh, speaking of that, another reviewer mentioned being able to hear air conditioners and showers from other rooms. I didn't hear a single peep from outside of my room (other than when people were walking down the hall talking), and I know there were people staying in at least one of the adjacent rooms. I had breakfast twice at the hotel. The first time, I had looked at the menu in my room and was going to order the garden omelet, but when I got down there and the waitress asked if I wanted the buffet I decided to go for that. That was a mistake. Everything was lukewarm and tough; I assume it had been sitting out for a while. If you get there as soon as the buffet starts at 6 or whatever I'm sure it's fine. The second time I did order the garden omelet, and it was fantastic - absolutely loaded with perfectly-grilled veggies. Also came with freshly-cooked potatoes (one of the items I was less than impressed with on the buffet) and toast. I never had dinner at the hotel, but the menu looked pretty good. I know this ended up being a pretty long review, but I wanted to mention all of the details that stuck with me in the hopes that it can be of use to someone. For me, anyway, negative reviews always seem to stick out, and probably steer away many people who would honestly be perfectly satisfied. They almost steered me away from this hotel, but I'm glad they didn't - this will be my go-to hotel when I'm in the Fort Worth area (this was my first trip there but won't be my last - had a blast visiting relatives in the area.) I'm not doubting any of the other reviewers' experiences, but I've come to realize that those who are dissatisfied will almost always write a review, while only a few of the satisfied ones will. I'm positive that those who weren't happy with their stay are a very small minority. And for those who had a problem with the staff, I just have to wonder what kind of attitude they were bringing with them. I've worked in customer service for many years, and there are definitely some people you just can't please. Of all the positives I've pointed out regarding my stay, I would say the friendliness and helpfulness of the staff is their biggest asset. I really look forward to staying at this Holiday Inn again.More</t>
   </si>
   <si>
+    <t>Jessica W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r132225374-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1176,9 @@
     <t>Taylor checked us into room 322, but then later learned she had checked in another couple in this room. This couple tried to enter our room and knocked on the door. They went to the front desk and Taylor called my room. I answered and she asked who I was and what I was doing in this room. I explained she checked us into this room and she giggled. Eventually she said the other couple will be checked into room 316.The next day I found the "bill" slid under my door with presumingly the other couple's information on it. Yep; name, phone number, e-mail address and credit card information. I was furious! I went downstairs to check out and asked if room 316 received a "bill" with all of my information on it. The clerk shook her head yes and said "probably". When I asked to speak with the manager, she said they were "unavailable."All because Taylor never fixed her mistake in the computer when she learned that we were staying in 322 and the other couple in 316. The other couple now has all of my information and the hotel doesn't seem to care. This is unacceptable and we will never stay here again. They did nothing to remedy the situation.More</t>
   </si>
   <si>
+    <t>ontheroadagain222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r132150543-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1194,9 @@
     <t>If you're travelling to Dallas Fort Worth you will be getting a car. So there's no need to stay at one of the expensive and mediocre hotels by the airport.This place is every bit as good and costs half the price.</t>
   </si>
   <si>
+    <t>kbq0002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r131663062-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1212,9 @@
     <t>Nice hotel. Conveint to stockyards and downtown. It's a good value.</t>
   </si>
   <si>
+    <t>MCooley243</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r129263671-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1233,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>TulsaStacy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r116089599-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1257,9 @@
     <t>We only stayed at this hotel because it was a "Name your own Price" Priceline bid that we won for 50.00 a night.  The room had a King bed, small refrigerator, safe in the closet, and a nice flat screen TV.  It was very clean, however, we found it strange when we returned to our room the next day at 5:00 pm the housekeepers still hadn't made it to our room.  Around 5:30, she knocked and we just asked for fresh towels.  This hotel is North of  downtown about 8-10 miles.  There is a Cracker Barrel, McDonalds and Subway near the hotel.  The only negative thing for me was it was a walk in shower only and no bathtub.  There is an indoor pool and also they have an onsite restaurant, but no comlimentary breakfast.  The hotel also offers free laundry on some of the floors. (bring your own detergent)I would not pay the original rate of 110 a night, but if you can get a rate for 79.00 or less it would be a nice place to stay.More</t>
   </si>
   <si>
+    <t>citisurfer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r112141023-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1141,6 +1279,9 @@
   </si>
   <si>
     <t>I stopped here overnight for a business trip and rate this hotel firmly in the Average category.The hotel was full so there must've been an event on in town or something similar.  When I opened the door I thought they had sent me to a meeting room because there was a massive boardroom table in the main room and the bedroom was off to the side.  Clearly this was unexpected!!The bedroom was comfortable, if not a bit small.  If they'd made the area where the table was smaller, then the bedroom might have been more comfortable than it was.The breakfast here was terrible.  Slow service and the food wasn't very appetizing.The staff were friendly and helpful.Would stay here again if there were no other options but won't be rushing back.More</t>
+  </si>
+  <si>
+    <t>FatherRichard</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r106523936-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1174,6 +1315,9 @@
 Upon arrival in the room, we discovered that housekeeping had given us two towels for our reservation of four.  The...Let me start by saying that I like the Holiday Inn chain.  Whenever possible, I try to stay with a Holiday Inn property because (at least until this last stay) I get consistantly good service and value.This property is very clean and in a good location, but the service is horrible. I made reservations three weeks in advance for my family of four (2 adults, 2 Middle School types) with 2 beds and "late arrival".  Upon check-in around 6 PM, the hotel manager told me that  there were not any 2-bed rooms available.  We could have a room with a single bed and a sofa, but they were out of roll-away beds as well.  He explained that some guests had simply decided not to check out so my family was without a room. There was nothing that he could do about it.  I explained that we had driven for 5 hours and asked if they could contact a nearby Holiday Inn.  They said there was no need as they were without rooms as well. I then gave him my reservation number (again) and this time, "oh - here it is.  We were looking at the wrong number. Yes - you have a room".  He then offered me two free buffet-style breakfast tickets for the four of us to enjoy.Upon arrival in the room, we discovered that housekeeping had given us two towels for our reservation of four.  The front desk happily gave me two more - that I could pick-up at the front desk.  The next day housekeeping left an extra towel bringing the total count to three towels for four people.The property is nice, but the service was a real disappointment.  I expect more from a Holiday Inn.  Next time - well - there probably won't be a next time at Fossil Creek.More</t>
   </si>
   <si>
+    <t>DreamcatcherArabians</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r105906622-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1336,9 @@
     <t>The staff is friendly, the hotel is clean and very presentable.  Unfortunately, this is the most miserable experience I have ever had in a hotel.  I truly have to congratulate Holiday Inn on providing what is the MOST uncomfortable bed I have ever NOT slept in.  It's 4:15 am and I'm counting the minutes to go down and complain to the manager.  I'm booked here for 4 nights and I don't care if I have to sleep in my tack stall at the Will Rogers Equestrian Center, I willnot sleep here another night.  Who's idea was it to put a concrete slab in the room and call it a bed?  And does a bedspread really cost that much?  For $117/night, I expect MUCH better than this.  Sorry, Holiday Inn, you won't be getting any repeat business from me.  If I can't sleep, I can't compete, thus I will have wasted almost $2K on this horse show if I don't find another hotel with decent beds.More</t>
   </si>
   <si>
+    <t>5113</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r90405349-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1358,9 @@
   </si>
   <si>
     <t>Stayed here for one night, having got a good rate on Hotwire.  Location is quite convenient for Fort Worth attractions, even if a bit hard to find your way there, especially after dark.  Room was fine, as was the bed comfort.  Very impersonal though, you felt as if you were being processed rather than welcomed by the front desk staff!  Noticed there was a small enclosed pool and whirlpool for guests to use.  Business centre seemed to be in permanent use by people attending meetings at the hotel.  Breakfast was a bit chaotic, one waitress to a packed roomful of guests.  Food was tasty and reasonably priced however.  Dinner not available in the hotel restaurant.  Would stay here again, but just for a night or two!More</t>
+  </si>
+  <si>
+    <t>jacksprat_333</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r80507487-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1231,6 +1381,9 @@
   <si>
     <t>I recently stayed at this hotel with my father, who is handicap and required a wheelchair accessible room.  We picked this hotel based on reviews from several sites as we are from Ohio and traveling to visit family for a few days. I am not a person who needs luxurious accommodations and nit picks everything. This hotel was clean, quiet, and had a friendly helpful staff, which to me is all you can ask for.
 The Pros: The hotel was VERY clean. You can tell this is a new hotel. The house keeping department really does a great job. As stated we stayed in a wheelchair accessible room. The room was very spacious, plenty of room to move around in a wheelchair and not feel like you were going to knock everything over. The bathroom was very accommodating. It had a built in transfer tub bench, hand held shower, grab bars everywhere, and had plenty of room to easily fit a wheelchair. The bathroom was also very clean and had all the usual toiletries if you forget anything. The beds were comfortable and clean and I slept like a rock! The room has a fridge, coffee pot and microwave.  The hotel was very quiet. I never heard noises in the hall or from the surrounding rooms. The location of the hotel is great. It is the first exit off the 820 loop so you don’t have to get into the...I recently stayed at this hotel with my father, who is handicap and required a wheelchair accessible room.  We picked this hotel based on reviews from several sites as we are from Ohio and traveling to visit family for a few days. I am not a person who needs luxurious accommodations and nit picks everything. This hotel was clean, quiet, and had a friendly helpful staff, which to me is all you can ask for.The Pros: The hotel was VERY clean. You can tell this is a new hotel. The house keeping department really does a great job. As stated we stayed in a wheelchair accessible room. The room was very spacious, plenty of room to move around in a wheelchair and not feel like you were going to knock everything over. The bathroom was very accommodating. It had a built in transfer tub bench, hand held shower, grab bars everywhere, and had plenty of room to easily fit a wheelchair. The bathroom was also very clean and had all the usual toiletries if you forget anything. The beds were comfortable and clean and I slept like a rock! The room has a fridge, coffee pot and microwave.  The hotel was very quiet. I never heard noises in the hall or from the surrounding rooms. The location of the hotel is great. It is the first exit off the 820 loop so you don’t have to get into the crazy Texas traffic. The Cons: I am truly stretching for these. The pool was very small. The spa was the same temperature as the pool so it was not very relaxing to say the least. There are not very many restaurants around the hotel. There is a Cracker Barrel and a McDonalds but the Cracker Barrel is always very busy. It really isn’t a big deal though, as you can hop on the loop and get to a restaurant in 5 minutes.This is a nice, clean, comfortable hotel that did a great job accommodating us. No bells and whistles, but relaxing and safe.More</t>
+  </si>
+  <si>
+    <t>MarkDavis</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r68489325-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1264,6 +1417,9 @@
 Pros: 2 elevators   Cons: only one seems to work, although there are no signs saying so.  And, once you press the button, it can take up to 2 minutes for the elevator to arrive. Seriously, it often takes that long to hear the motors kick in. Ridiculous. I made the mistake...This hotel is only a couple years old, and overall looks like it.  I'm saying here with a couple coworkers.  Here's the pros &amp; cons:Pros: Has a small bar &amp; restaurant in the lobby w/a McDonald's across the parking lot and several good restaurants close by.  There is a small pantry that sells chips &amp; sodas. Cons: However, the soda's in the vending machines on each floor are 75 cents cheaper, so avoid the pantry.Pros: The rooms are very quiet and spacious. The HVAC works well. The bathroom is nicely equipped with regular amenities.  32" flat screen TV.  GREAT placement of electric outlets all over the room. I LOVE this feature.  Free wireless internet.Cons:  the selection of TV channels was poor, with most showing only Direct TV screen savers.  They have the smallest pillows I've ever seen on the bed.  They are about 12" square. Really strange!  The alarm clocks (Timex Indiglos) suck! They are impossible to set, change, and worse of all, turn off the the Alarm.  What were they thinking???  Free Wireless Internet is unbelievably slow and unresponsive. I can surf my blackberry faster.Pros: 2 elevators   Cons: only one seems to work, although there are no signs saying so.  And, once you press the button, it can take up to 2 minutes for the elevator to arrive. Seriously, it often takes that long to hear the motors kick in. Ridiculous. I made the mistake of taking the stair, only to find that they only exit to the outside. Pros: Fitness room. Cons: Equipment looks older than the hotel, pretty ratty stuff.Overall... it's a mixed bag. My next trip, I'll try to get into another of the area hotels.More</t>
   </si>
   <si>
+    <t>Shawn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r64487008-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1282,6 +1438,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>jackblackTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r51641934-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1460,9 @@
   </si>
   <si>
     <t>Let's see where to start... I saw the power truck at the property to turn the power off so that says alot right there about the property management, they don't pay  their bills. Their prices are ridiculously high, and they were always out of some supply whether it be shampoo, conditioner, laundry soap, toothpaste, and toothbrushes. Honestly if you are going to stay somewhere I would recommed a  property that when they say they offer the amenities that they actually do! Like the shuttle service website and reservations say the shuttle runs 7 days a week from 7am to 10pm and yet there is no one that can drive the shuttle because no one is on the property who can leave the property. This place was the most pathetic place I have ever stayed in my life!!!!!! My colleagues have gone back and the management company is getting rid of all the good employees to bring people in at lower cost. Needless to say we are taking our business elsewhere! The internet service is horrible the restaurant food was always cold and had horrible service. The business center is a JOKE, there isn't even a printer in there, and the computer has a virus so you can't surf the internet for more than 2 minutes before it shuts off on you. Horrible Hotel!More</t>
+  </si>
+  <si>
+    <t>pixiemom72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d1027019-r37871684-Holiday_Inn_Fort_Worth_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1823,43 +1985,47 @@
       <c r="A2" t="n">
         <v>57354</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>43457</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1871,56 +2037,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57354</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1932,56 +2102,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57354</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1993,56 +2167,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57354</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2060,56 +2238,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57354</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>67853</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2125,56 +2307,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57354</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2186,56 +2372,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57354</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>156203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2247,56 +2437,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57354</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>156204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>106</v>
       </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2314,56 +2508,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57354</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2375,56 +2573,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57354</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2442,56 +2644,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57354</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>54534</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2503,56 +2709,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57354</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2564,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -2583,37 +2793,37 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2627,50 +2837,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57354</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2682,56 +2896,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57354</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156209</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2747,56 +2965,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57354</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156210</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2808,56 +3030,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57354</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2877,50 +3103,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57354</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2940,50 +3170,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57354</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3003,50 +3237,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57354</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3066,50 +3304,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57354</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>79039</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3125,56 +3367,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57354</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156214</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3194,50 +3440,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57354</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>2613</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3255,47 +3505,51 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57354</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
@@ -3324,50 +3578,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57354</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>156216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3387,41 +3645,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57354</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>154961</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3450,50 +3712,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57354</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3517,50 +3783,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57354</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>156218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3582,47 +3852,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57354</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>123295</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -3649,56 +3923,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57354</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156219</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3722,50 +4000,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57354</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>156220</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3789,41 +4071,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57354</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>156221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -3852,50 +4138,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57354</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>311</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3919,41 +4209,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57354</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156223</v>
+      </c>
+      <c r="C35" t="s">
+        <v>319</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -3980,47 +4274,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="X35" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57354</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>39273</v>
+      </c>
+      <c r="C36" t="s">
+        <v>328</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4049,50 +4347,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57354</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156224</v>
+      </c>
+      <c r="C37" t="s">
+        <v>335</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4116,50 +4418,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57354</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>967</v>
+      </c>
+      <c r="C38" t="s">
+        <v>343</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4183,50 +4489,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57354</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>21978</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4250,50 +4560,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57354</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>69153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>355</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4317,50 +4631,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57354</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156225</v>
+      </c>
+      <c r="C41" t="s">
+        <v>361</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4384,50 +4702,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57354</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>26012</v>
+      </c>
+      <c r="C42" t="s">
+        <v>367</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="O42" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4451,50 +4773,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57354</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>3951</v>
+      </c>
+      <c r="C43" t="s">
+        <v>375</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4516,47 +4842,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="X43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="Y43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57354</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156226</v>
+      </c>
+      <c r="C44" t="s">
+        <v>384</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="J44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="K44" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -4585,41 +4915,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57354</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156227</v>
+      </c>
+      <c r="C45" t="s">
+        <v>390</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4648,50 +4982,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57354</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156228</v>
+      </c>
+      <c r="C46" t="s">
+        <v>396</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4715,50 +5053,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57354</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>38840</v>
+      </c>
+      <c r="C47" t="s">
+        <v>403</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="J47" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="K47" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4778,50 +5120,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57354</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>156229</v>
+      </c>
+      <c r="C48" t="s">
+        <v>411</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4841,50 +5187,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57354</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>11536</v>
+      </c>
+      <c r="C49" t="s">
+        <v>419</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -4908,50 +5258,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57354</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156230</v>
+      </c>
+      <c r="C50" t="s">
+        <v>427</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="J50" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="K50" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4975,50 +5329,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57354</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156231</v>
+      </c>
+      <c r="C51" t="s">
+        <v>434</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5042,41 +5400,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57354</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156232</v>
+      </c>
+      <c r="C52" t="s">
+        <v>442</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="L52" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
@@ -5105,50 +5467,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57354</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>35418</v>
+      </c>
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="O53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5172,50 +5538,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57354</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>22488</v>
+      </c>
+      <c r="C54" t="s">
+        <v>457</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="J54" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="K54" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="L54" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="O54" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5239,50 +5609,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57354</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156233</v>
+      </c>
+      <c r="C55" t="s">
+        <v>464</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="J55" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5306,50 +5680,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57354</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156234</v>
+      </c>
+      <c r="C56" t="s">
+        <v>472</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="J56" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="K56" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="L56" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5373,7 +5751,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
